--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Il1rn-Il1r1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Il1rn-Il1r1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Il1r1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>61.3174569129574</v>
+        <v>0.009651333333333333</v>
       </c>
       <c r="H2">
-        <v>61.3174569129574</v>
+        <v>0.028954</v>
       </c>
       <c r="I2">
-        <v>0.06883237489967343</v>
+        <v>1.003696641352988E-05</v>
       </c>
       <c r="J2">
-        <v>0.06883237489967343</v>
+        <v>1.003696641352988E-05</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.0938989622304</v>
+        <v>17.785488</v>
       </c>
       <c r="N2">
-        <v>11.0938989622304</v>
+        <v>53.356464</v>
       </c>
       <c r="O2">
-        <v>0.09634759792068325</v>
+        <v>0.1438794224342548</v>
       </c>
       <c r="P2">
-        <v>0.09634759792068325</v>
+        <v>0.1438794224342548</v>
       </c>
       <c r="Q2">
-        <v>680.2496716132653</v>
+        <v>0.171653673184</v>
       </c>
       <c r="R2">
-        <v>680.2496716132653</v>
+        <v>1.544883058656</v>
       </c>
       <c r="S2">
-        <v>0.006631833980759466</v>
+        <v>1.444112930570693E-06</v>
       </c>
       <c r="T2">
-        <v>0.006631833980759466</v>
+        <v>1.444112930570694E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -602,49 +602,49 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>61.3174569129574</v>
+        <v>0.009651333333333333</v>
       </c>
       <c r="H3">
-        <v>61.3174569129574</v>
+        <v>0.028954</v>
       </c>
       <c r="I3">
-        <v>0.06883237489967343</v>
+        <v>1.003696641352988E-05</v>
       </c>
       <c r="J3">
-        <v>0.06883237489967343</v>
+        <v>1.003696641352988E-05</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>94.394598473686</v>
+        <v>95.39815</v>
       </c>
       <c r="N3">
-        <v>94.394598473686</v>
+        <v>286.19445</v>
       </c>
       <c r="O3">
-        <v>0.819792288589455</v>
+        <v>0.7717432731278673</v>
       </c>
       <c r="P3">
-        <v>0.819792288589455</v>
+        <v>0.7717432731278673</v>
       </c>
       <c r="Q3">
-        <v>5788.036724726156</v>
+        <v>0.9207193450333333</v>
       </c>
       <c r="R3">
-        <v>5788.036724726156</v>
+        <v>8.2864741053</v>
       </c>
       <c r="S3">
-        <v>0.05642825014805064</v>
+        <v>7.745961312252021E-06</v>
       </c>
       <c r="T3">
-        <v>0.05642825014805064</v>
+        <v>7.745961312252023E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>61.3174569129574</v>
+        <v>0.009651333333333333</v>
       </c>
       <c r="H4">
-        <v>61.3174569129574</v>
+        <v>0.028954</v>
       </c>
       <c r="I4">
-        <v>0.06883237489967343</v>
+        <v>1.003696641352988E-05</v>
       </c>
       <c r="J4">
-        <v>0.06883237489967343</v>
+        <v>1.003696641352988E-05</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.194724622818158</v>
+        <v>0.2910066666666667</v>
       </c>
       <c r="N4">
-        <v>0.194724622818158</v>
+        <v>0.87302</v>
       </c>
       <c r="O4">
-        <v>0.001691132191523825</v>
+        <v>0.002354159251886579</v>
       </c>
       <c r="P4">
-        <v>0.001691132191523825</v>
+        <v>0.002354159251886578</v>
       </c>
       <c r="Q4">
-        <v>11.94001866954428</v>
+        <v>0.002808602342222222</v>
       </c>
       <c r="R4">
-        <v>11.94001866954428</v>
+        <v>0.02527742108</v>
       </c>
       <c r="S4">
-        <v>0.0001164046450118743</v>
+        <v>2.362861734328622E-08</v>
       </c>
       <c r="T4">
-        <v>0.0001164046450118743</v>
+        <v>2.362861734328622E-08</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>61.3174569129574</v>
+        <v>0.009651333333333333</v>
       </c>
       <c r="H5">
-        <v>61.3174569129574</v>
+        <v>0.028954</v>
       </c>
       <c r="I5">
-        <v>0.06883237489967343</v>
+        <v>1.003696641352988E-05</v>
       </c>
       <c r="J5">
-        <v>0.06883237489967343</v>
+        <v>1.003696641352988E-05</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.207630874724813</v>
+        <v>0.2256796666666666</v>
       </c>
       <c r="N5">
-        <v>0.207630874724813</v>
+        <v>0.6770389999999999</v>
       </c>
       <c r="O5">
-        <v>0.001803219598629203</v>
+        <v>0.001825682831708365</v>
       </c>
       <c r="P5">
-        <v>0.001803219598629203</v>
+        <v>0.001825682831708365</v>
       </c>
       <c r="Q5">
-        <v>12.73139721473838</v>
+        <v>0.002178109689555555</v>
       </c>
       <c r="R5">
-        <v>12.73139721473838</v>
+        <v>0.019602987206</v>
       </c>
       <c r="S5">
-        <v>0.000124119887439284</v>
+        <v>1.832431726361499E-08</v>
       </c>
       <c r="T5">
-        <v>0.000124119887439284</v>
+        <v>1.832431726361499E-08</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>61.3174569129574</v>
+        <v>0.009651333333333333</v>
       </c>
       <c r="H6">
-        <v>61.3174569129574</v>
+        <v>0.028954</v>
       </c>
       <c r="I6">
-        <v>0.06883237489967343</v>
+        <v>1.003696641352988E-05</v>
       </c>
       <c r="J6">
-        <v>0.06883237489967343</v>
+        <v>1.003696641352988E-05</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.457031863670565</v>
+        <v>0.58116</v>
       </c>
       <c r="N6">
-        <v>0.457031863670565</v>
+        <v>1.74348</v>
       </c>
       <c r="O6">
-        <v>0.003969201665508877</v>
+        <v>0.004701415285422111</v>
       </c>
       <c r="P6">
-        <v>0.003969201665508877</v>
+        <v>0.004701415285422111</v>
       </c>
       <c r="Q6">
-        <v>28.02403160846849</v>
+        <v>0.00560896888</v>
       </c>
       <c r="R6">
-        <v>28.02403160846849</v>
+        <v>0.05048071992</v>
       </c>
       <c r="S6">
-        <v>0.0002732095770927153</v>
+        <v>4.718794731583773E-08</v>
       </c>
       <c r="T6">
-        <v>0.0002732095770927153</v>
+        <v>4.718794731583774E-08</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -850,49 +850,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>61.3174569129574</v>
+        <v>0.009651333333333333</v>
       </c>
       <c r="H7">
-        <v>61.3174569129574</v>
+        <v>0.028954</v>
       </c>
       <c r="I7">
-        <v>0.06883237489967343</v>
+        <v>1.003696641352988E-05</v>
       </c>
       <c r="J7">
-        <v>0.06883237489967343</v>
+        <v>1.003696641352988E-05</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.79664606458693</v>
+        <v>9.332356333333333</v>
       </c>
       <c r="N7">
-        <v>8.79664606458693</v>
+        <v>27.997069</v>
       </c>
       <c r="O7">
-        <v>0.07639656003419985</v>
+        <v>0.07549604706886086</v>
       </c>
       <c r="P7">
-        <v>0.07639656003419985</v>
+        <v>0.07549604706886086</v>
       </c>
       <c r="Q7">
-        <v>539.3879660438454</v>
+        <v>0.09006968175844444</v>
       </c>
       <c r="R7">
-        <v>539.3879660438454</v>
+        <v>0.810627135826</v>
       </c>
       <c r="S7">
-        <v>0.005258556661319452</v>
+        <v>7.577512887844275E-07</v>
       </c>
       <c r="T7">
-        <v>0.005258556661319452</v>
+        <v>7.577512887844277E-07</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>79.93410207609369</v>
+        <v>86.70808599999999</v>
       </c>
       <c r="H8">
-        <v>79.93410207609369</v>
+        <v>260.124258</v>
       </c>
       <c r="I8">
-        <v>0.08973063069430347</v>
+        <v>0.09017263386372804</v>
       </c>
       <c r="J8">
-        <v>0.08973063069430347</v>
+        <v>0.09017263386372805</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.0938989622304</v>
+        <v>17.785488</v>
       </c>
       <c r="N8">
-        <v>11.0938989622304</v>
+        <v>53.356464</v>
       </c>
       <c r="O8">
-        <v>0.09634759792068325</v>
+        <v>0.1438794224342548</v>
       </c>
       <c r="P8">
-        <v>0.09634759792068325</v>
+        <v>0.1438794224342548</v>
       </c>
       <c r="Q8">
-        <v>886.7808520687946</v>
+        <v>1542.145623055968</v>
       </c>
       <c r="R8">
-        <v>886.7808520687946</v>
+        <v>13879.31060750371</v>
       </c>
       <c r="S8">
-        <v>0.008645330727304069</v>
+        <v>0.01297398647968872</v>
       </c>
       <c r="T8">
-        <v>0.008645330727304069</v>
+        <v>0.01297398647968872</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>79.93410207609369</v>
+        <v>86.70808599999999</v>
       </c>
       <c r="H9">
-        <v>79.93410207609369</v>
+        <v>260.124258</v>
       </c>
       <c r="I9">
-        <v>0.08973063069430347</v>
+        <v>0.09017263386372804</v>
       </c>
       <c r="J9">
-        <v>0.08973063069430347</v>
+        <v>0.09017263386372805</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>94.394598473686</v>
+        <v>95.39815</v>
       </c>
       <c r="N9">
-        <v>94.394598473686</v>
+        <v>286.19445</v>
       </c>
       <c r="O9">
-        <v>0.819792288589455</v>
+        <v>0.7717432731278673</v>
       </c>
       <c r="P9">
-        <v>0.819792288589455</v>
+        <v>0.7717432731278673</v>
       </c>
       <c r="Q9">
-        <v>7545.347469827495</v>
+        <v>8271.7909944409</v>
       </c>
       <c r="R9">
-        <v>7545.347469827495</v>
+        <v>74446.11894996811</v>
       </c>
       <c r="S9">
-        <v>0.07356047909345824</v>
+        <v>0.06959012360455424</v>
       </c>
       <c r="T9">
-        <v>0.07356047909345824</v>
+        <v>0.06959012360455424</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>79.93410207609369</v>
+        <v>86.70808599999999</v>
       </c>
       <c r="H10">
-        <v>79.93410207609369</v>
+        <v>260.124258</v>
       </c>
       <c r="I10">
-        <v>0.08973063069430347</v>
+        <v>0.09017263386372804</v>
       </c>
       <c r="J10">
-        <v>0.08973063069430347</v>
+        <v>0.09017263386372805</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.194724622818158</v>
+        <v>0.2910066666666667</v>
       </c>
       <c r="N10">
-        <v>0.194724622818158</v>
+        <v>0.87302</v>
       </c>
       <c r="O10">
-        <v>0.001691132191523825</v>
+        <v>0.002354159251886579</v>
       </c>
       <c r="P10">
-        <v>0.001691132191523825</v>
+        <v>0.002354159251886578</v>
       </c>
       <c r="Q10">
-        <v>15.56513787707548</v>
+        <v>25.23263107990667</v>
       </c>
       <c r="R10">
-        <v>15.56513787707548</v>
+        <v>227.09367971916</v>
       </c>
       <c r="S10">
-        <v>0.0001517463581328724</v>
+        <v>0.0002122807402772763</v>
       </c>
       <c r="T10">
-        <v>0.0001517463581328724</v>
+        <v>0.0002122807402772763</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>79.93410207609369</v>
+        <v>86.70808599999999</v>
       </c>
       <c r="H11">
-        <v>79.93410207609369</v>
+        <v>260.124258</v>
       </c>
       <c r="I11">
-        <v>0.08973063069430347</v>
+        <v>0.09017263386372804</v>
       </c>
       <c r="J11">
-        <v>0.08973063069430347</v>
+        <v>0.09017263386372805</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.207630874724813</v>
+        <v>0.2256796666666666</v>
       </c>
       <c r="N11">
-        <v>0.207630874724813</v>
+        <v>0.6770389999999999</v>
       </c>
       <c r="O11">
-        <v>0.001803219598629203</v>
+        <v>0.001825682831708365</v>
       </c>
       <c r="P11">
-        <v>0.001803219598629203</v>
+        <v>0.001825682831708365</v>
       </c>
       <c r="Q11">
-        <v>16.59678753440183</v>
+        <v>19.56825194578466</v>
       </c>
       <c r="R11">
-        <v>16.59678753440183</v>
+        <v>176.114267512062</v>
       </c>
       <c r="S11">
-        <v>0.0001618040318653272</v>
+        <v>0.0001646266295349326</v>
       </c>
       <c r="T11">
-        <v>0.0001618040318653272</v>
+        <v>0.0001646266295349326</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>79.93410207609369</v>
+        <v>86.70808599999999</v>
       </c>
       <c r="H12">
-        <v>79.93410207609369</v>
+        <v>260.124258</v>
       </c>
       <c r="I12">
-        <v>0.08973063069430347</v>
+        <v>0.09017263386372804</v>
       </c>
       <c r="J12">
-        <v>0.08973063069430347</v>
+        <v>0.09017263386372805</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.457031863670565</v>
+        <v>0.58116</v>
       </c>
       <c r="N12">
-        <v>0.457031863670565</v>
+        <v>1.74348</v>
       </c>
       <c r="O12">
-        <v>0.003969201665508877</v>
+        <v>0.004701415285422111</v>
       </c>
       <c r="P12">
-        <v>0.003969201665508877</v>
+        <v>0.004701415285422111</v>
       </c>
       <c r="Q12">
-        <v>36.53243164267028</v>
+        <v>50.39127125976</v>
       </c>
       <c r="R12">
-        <v>36.53243164267028</v>
+        <v>453.52144133784</v>
       </c>
       <c r="S12">
-        <v>0.0003561589687989913</v>
+        <v>0.0004239389991737024</v>
       </c>
       <c r="T12">
-        <v>0.0003561589687989913</v>
+        <v>0.0004239389991737025</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>79.93410207609369</v>
+        <v>86.70808599999999</v>
       </c>
       <c r="H13">
-        <v>79.93410207609369</v>
+        <v>260.124258</v>
       </c>
       <c r="I13">
-        <v>0.08973063069430347</v>
+        <v>0.09017263386372804</v>
       </c>
       <c r="J13">
-        <v>0.08973063069430347</v>
+        <v>0.09017263386372805</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.79664606458693</v>
+        <v>9.332356333333333</v>
       </c>
       <c r="N13">
-        <v>8.79664606458693</v>
+        <v>27.997069</v>
       </c>
       <c r="O13">
-        <v>0.07639656003419985</v>
+        <v>0.07549604706886086</v>
       </c>
       <c r="P13">
-        <v>0.07639656003419985</v>
+        <v>0.07549604706886086</v>
       </c>
       <c r="Q13">
-        <v>703.1520044539595</v>
+        <v>809.1907555333113</v>
       </c>
       <c r="R13">
-        <v>703.1520044539595</v>
+        <v>7282.716799799802</v>
       </c>
       <c r="S13">
-        <v>0.006855111514743971</v>
+        <v>0.006807677410499168</v>
       </c>
       <c r="T13">
-        <v>0.006855111514743971</v>
+        <v>0.006807677410499169</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>749.571356860222</v>
+        <v>80.815127</v>
       </c>
       <c r="H14">
-        <v>749.571356860222</v>
+        <v>242.445381</v>
       </c>
       <c r="I14">
-        <v>0.8414369944060232</v>
+        <v>0.08404421310397375</v>
       </c>
       <c r="J14">
-        <v>0.8414369944060232</v>
+        <v>0.08404421310397375</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.0938989622304</v>
+        <v>17.785488</v>
       </c>
       <c r="N14">
-        <v>11.0938989622304</v>
+        <v>53.356464</v>
       </c>
       <c r="O14">
-        <v>0.09634759792068325</v>
+        <v>0.1438794224342548</v>
       </c>
       <c r="P14">
-        <v>0.09634759792068325</v>
+        <v>0.1438794224342548</v>
       </c>
       <c r="Q14">
-        <v>8315.66889798925</v>
+        <v>1437.336471476976</v>
       </c>
       <c r="R14">
-        <v>8315.66889798925</v>
+        <v>12936.02824329279</v>
       </c>
       <c r="S14">
-        <v>0.08107043321261971</v>
+        <v>0.01209223284034117</v>
       </c>
       <c r="T14">
-        <v>0.08107043321261971</v>
+        <v>0.01209223284034117</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>749.571356860222</v>
+        <v>80.815127</v>
       </c>
       <c r="H15">
-        <v>749.571356860222</v>
+        <v>242.445381</v>
       </c>
       <c r="I15">
-        <v>0.8414369944060232</v>
+        <v>0.08404421310397375</v>
       </c>
       <c r="J15">
-        <v>0.8414369944060232</v>
+        <v>0.08404421310397375</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>94.394598473686</v>
+        <v>95.39815</v>
       </c>
       <c r="N15">
-        <v>94.394598473686</v>
+        <v>286.19445</v>
       </c>
       <c r="O15">
-        <v>0.819792288589455</v>
+        <v>0.7717432731278673</v>
       </c>
       <c r="P15">
-        <v>0.819792288589455</v>
+        <v>0.7717432731278673</v>
       </c>
       <c r="Q15">
-        <v>70755.48725819665</v>
+        <v>7709.61360781505</v>
       </c>
       <c r="R15">
-        <v>70755.48725819665</v>
+        <v>69386.52247033545</v>
       </c>
       <c r="S15">
-        <v>0.6898035593479461</v>
+        <v>0.0648605561083167</v>
       </c>
       <c r="T15">
-        <v>0.6898035593479461</v>
+        <v>0.0648605561083167</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>749.571356860222</v>
+        <v>80.815127</v>
       </c>
       <c r="H16">
-        <v>749.571356860222</v>
+        <v>242.445381</v>
       </c>
       <c r="I16">
-        <v>0.8414369944060232</v>
+        <v>0.08404421310397375</v>
       </c>
       <c r="J16">
-        <v>0.8414369944060232</v>
+        <v>0.08404421310397375</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.194724622818158</v>
+        <v>0.2910066666666667</v>
       </c>
       <c r="N16">
-        <v>0.194724622818158</v>
+        <v>0.87302</v>
       </c>
       <c r="O16">
-        <v>0.001691132191523825</v>
+        <v>0.002354159251886579</v>
       </c>
       <c r="P16">
-        <v>0.001691132191523825</v>
+        <v>0.002354159251886578</v>
       </c>
       <c r="Q16">
-        <v>145.9599997399016</v>
+        <v>23.51774072451334</v>
       </c>
       <c r="R16">
-        <v>145.9599997399016</v>
+        <v>211.65966652062</v>
       </c>
       <c r="S16">
-        <v>0.001422981188379079</v>
+        <v>0.000197853461846247</v>
       </c>
       <c r="T16">
-        <v>0.001422981188379079</v>
+        <v>0.000197853461846247</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>749.571356860222</v>
+        <v>80.815127</v>
       </c>
       <c r="H17">
-        <v>749.571356860222</v>
+        <v>242.445381</v>
       </c>
       <c r="I17">
-        <v>0.8414369944060232</v>
+        <v>0.08404421310397375</v>
       </c>
       <c r="J17">
-        <v>0.8414369944060232</v>
+        <v>0.08404421310397375</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.207630874724813</v>
+        <v>0.2256796666666666</v>
       </c>
       <c r="N17">
-        <v>0.207630874724813</v>
+        <v>0.6770389999999999</v>
       </c>
       <c r="O17">
-        <v>0.001803219598629203</v>
+        <v>0.001825682831708365</v>
       </c>
       <c r="P17">
-        <v>0.001803219598629203</v>
+        <v>0.001825682831708365</v>
       </c>
       <c r="Q17">
-        <v>155.6341564935528</v>
+        <v>18.23833092298433</v>
       </c>
       <c r="R17">
-        <v>155.6341564935528</v>
+        <v>164.144978306859</v>
       </c>
       <c r="S17">
-        <v>0.001517295679324592</v>
+        <v>0.0001534380769683641</v>
       </c>
       <c r="T17">
-        <v>0.001517295679324592</v>
+        <v>0.0001534380769683641</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>749.571356860222</v>
+        <v>80.815127</v>
       </c>
       <c r="H18">
-        <v>749.571356860222</v>
+        <v>242.445381</v>
       </c>
       <c r="I18">
-        <v>0.8414369944060232</v>
+        <v>0.08404421310397375</v>
       </c>
       <c r="J18">
-        <v>0.8414369944060232</v>
+        <v>0.08404421310397375</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.457031863670565</v>
+        <v>0.58116</v>
       </c>
       <c r="N18">
-        <v>0.457031863670565</v>
+        <v>1.74348</v>
       </c>
       <c r="O18">
-        <v>0.003969201665508877</v>
+        <v>0.004701415285422111</v>
       </c>
       <c r="P18">
-        <v>0.003969201665508877</v>
+        <v>0.004701415285422111</v>
       </c>
       <c r="Q18">
-        <v>342.5779941799014</v>
+        <v>46.96651920732</v>
       </c>
       <c r="R18">
-        <v>342.5779941799014</v>
+        <v>422.69867286588</v>
       </c>
       <c r="S18">
-        <v>0.003339833119617171</v>
+        <v>0.0003951267481382955</v>
       </c>
       <c r="T18">
-        <v>0.003339833119617171</v>
+        <v>0.0003951267481382955</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>749.571356860222</v>
+        <v>80.815127</v>
       </c>
       <c r="H19">
-        <v>749.571356860222</v>
+        <v>242.445381</v>
       </c>
       <c r="I19">
-        <v>0.8414369944060232</v>
+        <v>0.08404421310397375</v>
       </c>
       <c r="J19">
-        <v>0.8414369944060232</v>
+        <v>0.08404421310397375</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.79664606458693</v>
+        <v>9.332356333333333</v>
       </c>
       <c r="N19">
-        <v>8.79664606458693</v>
+        <v>27.997069</v>
       </c>
       <c r="O19">
-        <v>0.07639656003419985</v>
+        <v>0.07549604706886086</v>
       </c>
       <c r="P19">
-        <v>0.07639656003419985</v>
+        <v>0.07549604706886086</v>
       </c>
       <c r="Q19">
-        <v>6593.713926451557</v>
+        <v>754.1955622875877</v>
       </c>
       <c r="R19">
-        <v>6593.713926451557</v>
+        <v>6787.760060588289</v>
       </c>
       <c r="S19">
-        <v>0.06428289185813643</v>
+        <v>0.006345005868362975</v>
       </c>
       <c r="T19">
-        <v>0.06428289185813643</v>
+        <v>0.006345005868362975</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>794.0458573333334</v>
+      </c>
+      <c r="H20">
+        <v>2382.137572</v>
+      </c>
+      <c r="I20">
+        <v>0.8257731160658847</v>
+      </c>
+      <c r="J20">
+        <v>0.8257731160658847</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>17.785488</v>
+      </c>
+      <c r="N20">
+        <v>53.356464</v>
+      </c>
+      <c r="O20">
+        <v>0.1438794224342548</v>
+      </c>
+      <c r="P20">
+        <v>0.1438794224342548</v>
+      </c>
+      <c r="Q20">
+        <v>14122.49306705171</v>
+      </c>
+      <c r="R20">
+        <v>127102.4376034654</v>
+      </c>
+      <c r="S20">
+        <v>0.1188117590012944</v>
+      </c>
+      <c r="T20">
+        <v>0.1188117590012944</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>794.0458573333334</v>
+      </c>
+      <c r="H21">
+        <v>2382.137572</v>
+      </c>
+      <c r="I21">
+        <v>0.8257731160658847</v>
+      </c>
+      <c r="J21">
+        <v>0.8257731160658847</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>95.39815</v>
+      </c>
+      <c r="N21">
+        <v>286.19445</v>
+      </c>
+      <c r="O21">
+        <v>0.7717432731278673</v>
+      </c>
+      <c r="P21">
+        <v>0.7717432731278673</v>
+      </c>
+      <c r="Q21">
+        <v>75750.50580476395</v>
+      </c>
+      <c r="R21">
+        <v>681754.5522428754</v>
+      </c>
+      <c r="S21">
+        <v>0.6372848474536841</v>
+      </c>
+      <c r="T21">
+        <v>0.6372848474536841</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>794.0458573333334</v>
+      </c>
+      <c r="H22">
+        <v>2382.137572</v>
+      </c>
+      <c r="I22">
+        <v>0.8257731160658847</v>
+      </c>
+      <c r="J22">
+        <v>0.8257731160658847</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.2910066666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.87302</v>
+      </c>
+      <c r="O22">
+        <v>0.002354159251886579</v>
+      </c>
+      <c r="P22">
+        <v>0.002354159251886578</v>
+      </c>
+      <c r="Q22">
+        <v>231.0726381230489</v>
+      </c>
+      <c r="R22">
+        <v>2079.65374310744</v>
+      </c>
+      <c r="S22">
+        <v>0.001944001421145712</v>
+      </c>
+      <c r="T22">
+        <v>0.001944001421145712</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>794.0458573333334</v>
+      </c>
+      <c r="H23">
+        <v>2382.137572</v>
+      </c>
+      <c r="I23">
+        <v>0.8257731160658847</v>
+      </c>
+      <c r="J23">
+        <v>0.8257731160658847</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.2256796666666666</v>
+      </c>
+      <c r="N23">
+        <v>0.6770389999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.001825682831708365</v>
+      </c>
+      <c r="P23">
+        <v>0.001825682831708365</v>
+      </c>
+      <c r="Q23">
+        <v>179.2000044010342</v>
+      </c>
+      <c r="R23">
+        <v>1612.800039609308</v>
+      </c>
+      <c r="S23">
+        <v>0.001507599800887805</v>
+      </c>
+      <c r="T23">
+        <v>0.001507599800887805</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>794.0458573333334</v>
+      </c>
+      <c r="H24">
+        <v>2382.137572</v>
+      </c>
+      <c r="I24">
+        <v>0.8257731160658847</v>
+      </c>
+      <c r="J24">
+        <v>0.8257731160658847</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.58116</v>
+      </c>
+      <c r="N24">
+        <v>1.74348</v>
+      </c>
+      <c r="O24">
+        <v>0.004701415285422111</v>
+      </c>
+      <c r="P24">
+        <v>0.004701415285422111</v>
+      </c>
+      <c r="Q24">
+        <v>461.46769044784</v>
+      </c>
+      <c r="R24">
+        <v>4153.20921403056</v>
+      </c>
+      <c r="S24">
+        <v>0.003882302350162797</v>
+      </c>
+      <c r="T24">
+        <v>0.003882302350162797</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>794.0458573333334</v>
+      </c>
+      <c r="H25">
+        <v>2382.137572</v>
+      </c>
+      <c r="I25">
+        <v>0.8257731160658847</v>
+      </c>
+      <c r="J25">
+        <v>0.8257731160658847</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>9.332356333333333</v>
+      </c>
+      <c r="N25">
+        <v>27.997069</v>
+      </c>
+      <c r="O25">
+        <v>0.07549604706886086</v>
+      </c>
+      <c r="P25">
+        <v>0.07549604706886086</v>
+      </c>
+      <c r="Q25">
+        <v>7410.31888564183</v>
+      </c>
+      <c r="R25">
+        <v>66692.86997077648</v>
+      </c>
+      <c r="S25">
+        <v>0.06234260603870993</v>
+      </c>
+      <c r="T25">
+        <v>0.06234260603870993</v>
       </c>
     </row>
   </sheetData>
